--- a/module/mDrims-Reader/documents/origin/mdrims/일반교양/일반교양.xlsx
+++ b/module/mDrims-Reader/documents/origin/mdrims/일반교양/일반교양.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/97mjh1012_dongguk_edu/Documents/CSE_Study/개인 프로젝트/mdrims-reader/mdrims-reader/documents/mdrims/general_liberal_arts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - dongguk.edu\CSE_Study\개인 프로젝트\TimeTable-Generator\project\module\mDrims-Reader\mdrims-reader\documents\origin\mdrims\일반교양\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_632CF6504A06024FD9156304C4712D6FBBA5C9A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69099609-1E3B-49BD-B9D2-58696CB5FF1A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9E36EB-B73C-4137-B466-531FB0C1A3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="584">
   <si>
     <t>교과과정</t>
   </si>
@@ -43,10 +43,172 @@
     <t>일반교양</t>
   </si>
   <si>
-    <t>EGC2049-01</t>
-  </si>
-  <si>
-    <t>만해와근대지성</t>
+    <t>EGC1100-01</t>
+  </si>
+  <si>
+    <t>금서의문화사</t>
+  </si>
+  <si>
+    <t>김일환</t>
+  </si>
+  <si>
+    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>EGC1101-01</t>
+  </si>
+  <si>
+    <t>사회리더를위한의사소통의원리와실제</t>
+  </si>
+  <si>
+    <t>황선희</t>
+  </si>
+  <si>
+    <t>월8.5-9.5/16:30-18:00,수6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>EGC1102-01</t>
+  </si>
+  <si>
+    <t>역사학과빅데이터</t>
+  </si>
+  <si>
+    <t>김택경</t>
+  </si>
+  <si>
+    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>EGC1103-01</t>
+  </si>
+  <si>
+    <t>한국문화와불교</t>
+  </si>
+  <si>
+    <t>최연식</t>
+  </si>
+  <si>
+    <t>EGC1104-01</t>
+  </si>
+  <si>
+    <t>해외콘텐츠로보는근대불교문화</t>
+  </si>
+  <si>
+    <t>김진병</t>
+  </si>
+  <si>
+    <t>월6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>EGC1106-01</t>
+  </si>
+  <si>
+    <t>심리학의거장을만나다:인간의생각에대한이해</t>
+  </si>
+  <si>
+    <t>정지아</t>
+  </si>
+  <si>
+    <t>화6.0-7.0/14:00-15:30,목6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>EGC1107-01</t>
+  </si>
+  <si>
+    <t>양반·사대부·사무라이:주제로읽는한·중·일비교문화사</t>
+  </si>
+  <si>
+    <t>임경준</t>
+  </si>
+  <si>
+    <t>수4.5-5.5/12:30-14:00,금4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>EGC1108-01</t>
+  </si>
+  <si>
+    <t>인공지능윤리</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>EGC1109-01</t>
+  </si>
+  <si>
+    <t>지상의모든심리</t>
+  </si>
+  <si>
+    <t>김성규</t>
+  </si>
+  <si>
+    <t>월4.5-5.5/12:30-14:00,수3.0-4.0/11:00-12:30</t>
+  </si>
+  <si>
+    <t>EGC1109-02</t>
+  </si>
+  <si>
+    <t>화6.0-8.5/14:00-17:00</t>
+  </si>
+  <si>
+    <t>EGC1110-01</t>
+  </si>
+  <si>
+    <t>오랑캐의세계사:동아시아에서동부유라시아로</t>
+  </si>
+  <si>
+    <t>김장구</t>
+  </si>
+  <si>
+    <t>EGC1111-01</t>
+  </si>
+  <si>
+    <t>동부유라시아와한국,갈등과교류의역사</t>
+  </si>
+  <si>
+    <t>이승호</t>
+  </si>
+  <si>
+    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00</t>
+  </si>
+  <si>
+    <t>EGC1112-01</t>
+  </si>
+  <si>
+    <t>동국의역사와인물</t>
+  </si>
+  <si>
+    <t>윤재웅</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EGC1113-01</t>
+  </si>
+  <si>
+    <t>물품의글로벌히스토리</t>
+  </si>
+  <si>
+    <t>EGC1114-01</t>
+  </si>
+  <si>
+    <t>LanguageAndMind</t>
+  </si>
+  <si>
+    <t>윤영도</t>
+  </si>
+  <si>
+    <t>EGC2047-01</t>
+  </si>
+  <si>
+    <t>만해와불교의민족운동</t>
   </si>
   <si>
     <t>김광식</t>
@@ -55,1515 +217,1407 @@
     <t>수6.0-7.5/14:00-16:00</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>EGC2050-01</t>
-  </si>
-  <si>
-    <t>근현대고승열전</t>
+    <t>EGC2061-01</t>
+  </si>
+  <si>
+    <t>성장문학과나의자화상</t>
+  </si>
+  <si>
+    <t>최현숙</t>
+  </si>
+  <si>
+    <t>EGC2065-01</t>
+  </si>
+  <si>
+    <t>글로벌한국사</t>
+  </si>
+  <si>
+    <t>월8.0-9.0/16:00-17:30,수6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>EGC2065-02</t>
+  </si>
+  <si>
+    <t>김근식</t>
+  </si>
+  <si>
+    <t>EGC2065-03</t>
+  </si>
+  <si>
+    <t>엄기석</t>
+  </si>
+  <si>
+    <t>수8.0-9.0/16:00-17:30,금8.0-9.0/16:00-17:30</t>
+  </si>
+  <si>
+    <t>EGC2067-01</t>
+  </si>
+  <si>
+    <t>삶과죽음의철학</t>
+  </si>
+  <si>
+    <t>황인욱</t>
+  </si>
+  <si>
+    <t>EGC2071-01</t>
+  </si>
+  <si>
+    <t>한미관계,협력과갈등의이중주</t>
+  </si>
+  <si>
+    <t>박광명</t>
+  </si>
+  <si>
+    <t>EGC2075-01</t>
+  </si>
+  <si>
+    <t>만해의생애와사상</t>
   </si>
   <si>
     <t>화6.0-7.5/14:00-16:00</t>
   </si>
   <si>
-    <t>EGC2061-01</t>
-  </si>
-  <si>
-    <t>성장문학과나의자화상</t>
+    <t>EGC2081-01</t>
+  </si>
+  <si>
+    <t>21세기생명생태철학</t>
+  </si>
+  <si>
+    <t>김종욱(일초)</t>
+  </si>
+  <si>
+    <t>EGC2084-01</t>
+  </si>
+  <si>
+    <t>오리엔탈리즘과불교</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>EGC2086-01</t>
+  </si>
+  <si>
+    <t>대학과청년문화</t>
+  </si>
+  <si>
+    <t>조은애</t>
+  </si>
+  <si>
+    <t>EGC2087-01</t>
+  </si>
+  <si>
+    <t>세계문학속의인권</t>
+  </si>
+  <si>
+    <t>허병식</t>
+  </si>
+  <si>
+    <t>EGC2095-01</t>
+  </si>
+  <si>
+    <t>글로벌에콜로지컬히스토리</t>
+  </si>
+  <si>
+    <t>양홍석</t>
+  </si>
+  <si>
+    <t>월6.0-7.0/14:00-15:30,수6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>EGC2108-01</t>
+  </si>
+  <si>
+    <t>일본한자음쉽게이해하기</t>
+  </si>
+  <si>
+    <t>이경철</t>
+  </si>
+  <si>
+    <t>EGC2110-01</t>
+  </si>
+  <si>
+    <t>동아시아의역사와문화</t>
+  </si>
+  <si>
+    <t>EGC2111-01</t>
+  </si>
+  <si>
+    <t>인간과로봇의공존시대</t>
+  </si>
+  <si>
+    <t>허남결(월인(月印))</t>
+  </si>
+  <si>
+    <t>EGC2112-01</t>
+  </si>
+  <si>
+    <t>한국문화낯설게보기</t>
+  </si>
+  <si>
+    <t>김문정</t>
+  </si>
+  <si>
+    <t>EGC2113-01</t>
+  </si>
+  <si>
+    <t>현대페미니즘의이해</t>
+  </si>
+  <si>
+    <t>이은정</t>
+  </si>
+  <si>
+    <t>화2.5-5.0/10:30-13:30</t>
+  </si>
+  <si>
+    <t>EGC2116-01</t>
+  </si>
+  <si>
+    <t>불교와스토리텔링</t>
+  </si>
+  <si>
+    <t>우제선</t>
+  </si>
+  <si>
+    <t>화1.0-2.0/09:00-10:30,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>EGC2117-01</t>
+  </si>
+  <si>
+    <t>동유라시아 세계 물품의 문명·문화사</t>
+  </si>
+  <si>
+    <t>홍성민</t>
+  </si>
+  <si>
+    <t>EGC2118-01</t>
+  </si>
+  <si>
+    <t>이야기와 노래</t>
+  </si>
+  <si>
+    <t>EGC2119-01</t>
+  </si>
+  <si>
+    <t>지도 위의 문학</t>
+  </si>
+  <si>
+    <t>양승목</t>
+  </si>
+  <si>
+    <t>EGC2121-01</t>
+  </si>
+  <si>
+    <t>시와예술적상상력</t>
+  </si>
+  <si>
+    <t>박옥순</t>
+  </si>
+  <si>
+    <t>EGC2123-01</t>
+  </si>
+  <si>
+    <t>인간에 관하여</t>
+  </si>
+  <si>
+    <t>EGC2125-01</t>
+  </si>
+  <si>
+    <t>교유와 치유의 한시감상</t>
+  </si>
+  <si>
+    <t>박성호</t>
+  </si>
+  <si>
+    <t>월7.0-8.0/15:00-16:30,수7.5-8.5/15:30-17:00</t>
+  </si>
+  <si>
+    <t>EGC8013-01</t>
+  </si>
+  <si>
+    <t>시사한국어1</t>
+  </si>
+  <si>
+    <t>홍진선</t>
+  </si>
+  <si>
+    <t>화8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>EGC8013-02</t>
+  </si>
+  <si>
+    <t>백수혜</t>
+  </si>
+  <si>
+    <t>EGC8014-01</t>
+  </si>
+  <si>
+    <t>시사한국어2</t>
+  </si>
+  <si>
+    <t>목8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>EGC8014-02</t>
+  </si>
+  <si>
+    <t>권미경</t>
+  </si>
+  <si>
+    <t>금6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>EGC9006-01</t>
+  </si>
+  <si>
+    <t>인도불교이야기</t>
+  </si>
+  <si>
+    <t>황순일(보성)</t>
+  </si>
+  <si>
+    <t>EGC9008-01</t>
+  </si>
+  <si>
+    <t>중국문자의이해</t>
+  </si>
+  <si>
+    <t>박석홍</t>
+  </si>
+  <si>
+    <t>EGC9012-01</t>
+  </si>
+  <si>
+    <t>그리스문학과신화이야기</t>
+  </si>
+  <si>
+    <t>손윤락</t>
+  </si>
+  <si>
+    <t>EGC9013-01</t>
+  </si>
+  <si>
+    <t>서구문학에나타난문제적인간읽기</t>
   </si>
   <si>
     <t>정윤길</t>
   </si>
   <si>
-    <t>월8.5-9.5/16:30-18:00,수6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>EGC2065-01</t>
-  </si>
-  <si>
-    <t>글로벌한국사</t>
-  </si>
-  <si>
-    <t>노대환</t>
-  </si>
-  <si>
-    <t>월8.0-9.0/16:00-17:30,수6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>EGC2065-02</t>
-  </si>
-  <si>
-    <t>김근식</t>
-  </si>
-  <si>
-    <t>화4.0-5.0/12:00-13:30,목4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>EGC2065-03</t>
-  </si>
-  <si>
-    <t>이명제</t>
-  </si>
-  <si>
-    <t>수8.0-9.0/16:00-17:30,금8.0-9.0/16:00-17:30</t>
-  </si>
-  <si>
-    <t>EGC2067-01</t>
-  </si>
-  <si>
-    <t>삶과죽음의철학</t>
-  </si>
-  <si>
-    <t>황인욱</t>
-  </si>
-  <si>
-    <t>화8.0-9.0/16:00-17:30,목8.5-9.5/16:30-18:00</t>
-  </si>
-  <si>
-    <t>EGC2067-02</t>
-  </si>
-  <si>
-    <t>유흔우</t>
-  </si>
-  <si>
-    <t>EGC2071-01</t>
-  </si>
-  <si>
-    <t>한미관계,협력과갈등의이중주</t>
-  </si>
-  <si>
-    <t>박광명</t>
-  </si>
-  <si>
-    <t>EGC2084-01</t>
-  </si>
-  <si>
-    <t>오리엔탈리즘과불교</t>
-  </si>
-  <si>
-    <t>김진영</t>
-  </si>
-  <si>
-    <t>월4.0-5.0/12:00-13:30,수3.0-4.0/11:00-12:30</t>
-  </si>
-  <si>
-    <t>EGC2086-01</t>
-  </si>
-  <si>
-    <t>대학과청년문화</t>
-  </si>
-  <si>
-    <t>박광현</t>
-  </si>
-  <si>
-    <t>EGC2095-01</t>
-  </si>
-  <si>
-    <t>글로벌에콜로지컬히스토리</t>
-  </si>
-  <si>
-    <t>양홍석</t>
-  </si>
-  <si>
-    <t>월6.0-7.0/14:00-15:30,수6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>EGC2104-01</t>
-  </si>
-  <si>
-    <t>IntroductiontotheHistoryofModernArt</t>
+    <t>GCR2002-01</t>
+  </si>
+  <si>
+    <t>행복학의인문학적문제들</t>
+  </si>
+  <si>
+    <t>김진선</t>
+  </si>
+  <si>
+    <t>GCR2004-01</t>
+  </si>
+  <si>
+    <t>현대요가와자기이해</t>
+  </si>
+  <si>
+    <t>양영순</t>
+  </si>
+  <si>
+    <t>화6.0-7.0/14:00-15:30,금6.0-7.0/14:00-15:30</t>
+  </si>
+  <si>
+    <t>EGC3028-01</t>
+  </si>
+  <si>
+    <t>인터넷정책과법</t>
+  </si>
+  <si>
+    <t>심민석</t>
+  </si>
+  <si>
+    <t>금5.5-8.0/13:30-16:30</t>
+  </si>
+  <si>
+    <t>EGC3038-01</t>
+  </si>
+  <si>
+    <t>종교와법</t>
+  </si>
+  <si>
+    <t>고기복</t>
+  </si>
+  <si>
+    <t>EGC3038-02</t>
+  </si>
+  <si>
+    <t>EGC3039-01</t>
+  </si>
+  <si>
+    <t>인권의이해</t>
+  </si>
+  <si>
+    <t>EGC3039-02</t>
+  </si>
+  <si>
+    <t>EGC3041-01</t>
+  </si>
+  <si>
+    <t>영문학속의AI</t>
+  </si>
+  <si>
+    <t>노헌균</t>
+  </si>
+  <si>
+    <t>EGC3045-01</t>
+  </si>
+  <si>
+    <t>광고홍보의이해</t>
+  </si>
+  <si>
+    <t>안정용</t>
+  </si>
+  <si>
+    <t>화2.5-3.5/10:30-12:00,목2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>EGC3046-01</t>
+  </si>
+  <si>
+    <t>오페라속범죄학</t>
+  </si>
+  <si>
+    <t>조윤오</t>
+  </si>
+  <si>
+    <t>EGC3050-01</t>
+  </si>
+  <si>
+    <t>글로벌시대의대중문화론</t>
+  </si>
+  <si>
+    <t>남근우</t>
+  </si>
+  <si>
+    <t>EGC3051-01</t>
+  </si>
+  <si>
+    <t>대학생을위한실용금융</t>
+  </si>
+  <si>
+    <t>박한구</t>
+  </si>
+  <si>
+    <t>화2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>EGC3054-01</t>
+  </si>
+  <si>
+    <t>자본주의의역사와전망</t>
+  </si>
+  <si>
+    <t>이상호</t>
+  </si>
+  <si>
+    <t>EGC3057-01</t>
+  </si>
+  <si>
+    <t>연애학개론</t>
+  </si>
+  <si>
+    <t>장재숙</t>
+  </si>
+  <si>
+    <t>EGC3057-02</t>
+  </si>
+  <si>
+    <t>EGC3059-01</t>
+  </si>
+  <si>
+    <t>기업운영의기초:수요와공급의균형</t>
+  </si>
+  <si>
+    <t>정욱</t>
+  </si>
+  <si>
+    <t>EGC3061-01</t>
+  </si>
+  <si>
+    <t>소비인사이트</t>
+  </si>
+  <si>
+    <t>조소연</t>
+  </si>
+  <si>
+    <t>EGC3063-01</t>
+  </si>
+  <si>
+    <t>나의 생각 : 나와 타인, 사회에 대한 인지</t>
+  </si>
+  <si>
+    <t>EGC3064-01</t>
+  </si>
+  <si>
+    <t>자녀와 소통하는 훈련중심 예비부모교육</t>
+  </si>
+  <si>
+    <t>이현</t>
+  </si>
+  <si>
+    <t>EGC3065-01</t>
+  </si>
+  <si>
+    <t>포스트 코로나 시대와 일본의 서브컬처</t>
+  </si>
+  <si>
+    <t>신우진</t>
+  </si>
+  <si>
+    <t>월4.0-5.0/12:00-13:30,수4.0-5.0/12:00-13:30</t>
+  </si>
+  <si>
+    <t>EGC3068-01</t>
+  </si>
+  <si>
+    <t>주제와 이슈로 돌아보는 세계</t>
+  </si>
+  <si>
+    <t>EGC3069-01</t>
+  </si>
+  <si>
+    <t>교과서밖의심리학</t>
+  </si>
+  <si>
+    <t>조은경</t>
+  </si>
+  <si>
+    <t>월1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>EGC3070-01</t>
+  </si>
+  <si>
+    <t>여행지리와도시산책</t>
+  </si>
+  <si>
+    <t>양병윤</t>
+  </si>
+  <si>
+    <t>EGC3071-01</t>
+  </si>
+  <si>
+    <t>한일관계의과거,현재그리고미래</t>
+  </si>
+  <si>
+    <t>김태진</t>
+  </si>
+  <si>
+    <t>EGC3072-01</t>
+  </si>
+  <si>
+    <t>디지털시대의노동인류학</t>
+  </si>
+  <si>
+    <t>김승연</t>
+  </si>
+  <si>
+    <t>EGC3073-01</t>
+  </si>
+  <si>
+    <t>에너지산업과시장읽기</t>
+  </si>
+  <si>
+    <t>김유원</t>
+  </si>
+  <si>
+    <t>EGC7026-01</t>
+  </si>
+  <si>
+    <t>기술창조와특허</t>
+  </si>
+  <si>
+    <t>오승택</t>
+  </si>
+  <si>
+    <t>화1.0-3.5/09:00-12:00</t>
+  </si>
+  <si>
+    <t>EGC7026-02</t>
+  </si>
+  <si>
+    <t>화8.0-10.5/16:00-18:50</t>
+  </si>
+  <si>
+    <t>EGC7026-03</t>
+  </si>
+  <si>
+    <t>이용태</t>
+  </si>
+  <si>
+    <t>수6.5-9.0/14:30-17:30</t>
+  </si>
+  <si>
+    <t>EGC7026-04</t>
+  </si>
+  <si>
+    <t>목6.5-9.0/14:30-17:30</t>
+  </si>
+  <si>
+    <t>EGC7026-05</t>
+  </si>
+  <si>
+    <t>김효성</t>
+  </si>
+  <si>
+    <t>월10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>EGC7026-06</t>
+  </si>
+  <si>
+    <t>금10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>EGC9016-01</t>
+  </si>
+  <si>
+    <t>유라시아지역의정보기술의활용</t>
+  </si>
+  <si>
+    <t>김인재</t>
+  </si>
+  <si>
+    <t>화9.5-11.0/17:30-19:15</t>
+  </si>
+  <si>
+    <t>GCR3001-01</t>
+  </si>
+  <si>
+    <t>관광과 문화</t>
+  </si>
+  <si>
+    <t>GCR3002-01</t>
+  </si>
+  <si>
+    <t>동남아시아와불교문화</t>
+  </si>
+  <si>
+    <t>EGC4021-01</t>
+  </si>
+  <si>
+    <t>생활속의약</t>
+  </si>
+  <si>
+    <t>한효경</t>
+  </si>
+  <si>
+    <t>EGC4023-01</t>
+  </si>
+  <si>
+    <t>인간과우주</t>
+  </si>
+  <si>
+    <t>이관수</t>
+  </si>
+  <si>
+    <t>화2.5-3.5/10:30-12:00,금1.0-2.0/09:00-10:30</t>
+  </si>
+  <si>
+    <t>EGC4027-01</t>
+  </si>
+  <si>
+    <t>숲에서찾는바이오나노재료의이해</t>
+  </si>
+  <si>
+    <t>김대영</t>
+  </si>
+  <si>
+    <t>EGC4028-01</t>
+  </si>
+  <si>
+    <t>노벨상으로보는생명이야기</t>
+  </si>
+  <si>
+    <t>성정석</t>
+  </si>
+  <si>
+    <t>EGC4029-01</t>
+  </si>
+  <si>
+    <t>알기쉬운반도체</t>
+  </si>
+  <si>
+    <t>김현석</t>
+  </si>
+  <si>
+    <t>EGC4030-01</t>
+  </si>
+  <si>
+    <t>성의과학</t>
+  </si>
+  <si>
+    <t>이태희</t>
+  </si>
+  <si>
+    <t>화4.0-6.5/12:00-15:00</t>
+  </si>
+  <si>
+    <t>EGC4031-01</t>
+  </si>
+  <si>
+    <t>미래사회와 식물</t>
+  </si>
+  <si>
+    <t>이병무</t>
+  </si>
+  <si>
+    <t>EGC4034-01</t>
+  </si>
+  <si>
+    <t>4차 산업혁명과 5G 무선통신</t>
+  </si>
+  <si>
+    <t>황승훈</t>
+  </si>
+  <si>
+    <t>EGC4035-01</t>
+  </si>
+  <si>
+    <t>사람을 위한 미생물에 의한 미생물의 환경공정</t>
+  </si>
+  <si>
+    <t>조시경</t>
+  </si>
+  <si>
+    <t>EGC4039-01</t>
+  </si>
+  <si>
+    <t>공학윤리</t>
+  </si>
+  <si>
+    <t>문재태</t>
+  </si>
+  <si>
+    <t>EGC4039-02</t>
+  </si>
+  <si>
+    <t>목10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>EGC4039-03</t>
+  </si>
+  <si>
+    <t>EGC4040-01</t>
+  </si>
+  <si>
+    <t>인공지능프로그래밍기초와실습</t>
+  </si>
+  <si>
+    <t>김윤선</t>
+  </si>
+  <si>
+    <t>월5.5-7.0/13:30-15:30,목5.5-7.0/13:30-15:30</t>
+  </si>
+  <si>
+    <t>EGC4040-02</t>
+  </si>
+  <si>
+    <t>윤성림</t>
+  </si>
+  <si>
+    <t>화8.0-9.5/16:00-18:00,목8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>EGC4040-03</t>
+  </si>
+  <si>
+    <t>금1.0-4.5/09:00-13:00</t>
+  </si>
+  <si>
+    <t>EGC4041-01</t>
+  </si>
+  <si>
+    <t>자연과학의융합적이해</t>
+  </si>
+  <si>
+    <t>화7.5-8.5/15:30-17:00,목8.5-9.5/16:30-18:00</t>
+  </si>
+  <si>
+    <t>EGC4042-01</t>
+  </si>
+  <si>
+    <t>태양계와외계행성</t>
+  </si>
+  <si>
+    <t>화1.0-2.0/09:00-10:30,금2.5-3.5/10:30-12:00</t>
+  </si>
+  <si>
+    <t>EGC7096-01</t>
+  </si>
+  <si>
+    <t>파이썬프로그래밍기초</t>
+  </si>
+  <si>
+    <t>강호석</t>
+  </si>
+  <si>
+    <t>월8.5-11.0/16:30-19:15</t>
+  </si>
+  <si>
+    <t>EGC7096-02</t>
+  </si>
+  <si>
+    <t>금8.5-11.0/16:30-19:15</t>
+  </si>
+  <si>
+    <t>EGC9005-01</t>
+  </si>
+  <si>
+    <t>컴퓨터알고리즘의이해</t>
+  </si>
+  <si>
+    <t>정진우</t>
+  </si>
+  <si>
+    <t>EGC9007-01</t>
+  </si>
+  <si>
+    <t>로봇프로그래밍의세계</t>
+  </si>
+  <si>
+    <t>곽문규</t>
+  </si>
+  <si>
+    <t>EGC9009-01</t>
+  </si>
+  <si>
+    <t>집합과수의세계로의초대</t>
+  </si>
+  <si>
+    <t>이한주</t>
+  </si>
+  <si>
+    <t>EGC9011-01</t>
+  </si>
+  <si>
+    <t>과학기술과사회</t>
+  </si>
+  <si>
+    <t>강윤재</t>
+  </si>
+  <si>
+    <t>GCR4003-01</t>
+  </si>
+  <si>
+    <t>현대자연과학과미래사회</t>
+  </si>
+  <si>
+    <t>조훈영</t>
+  </si>
+  <si>
+    <t>EGC7006-01</t>
+  </si>
+  <si>
+    <t>골프</t>
+  </si>
+  <si>
+    <t>EGC7009-01</t>
+  </si>
+  <si>
+    <t>댄스스포츠</t>
+  </si>
+  <si>
+    <t>월6.5-8.0/14:30-16:30</t>
+  </si>
+  <si>
+    <t>EGC7012-01</t>
+  </si>
+  <si>
+    <t>배드민턴</t>
+  </si>
+  <si>
+    <t>방은혜</t>
+  </si>
+  <si>
+    <t>금3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>EGC7014-01</t>
+  </si>
+  <si>
+    <t>농구</t>
+  </si>
+  <si>
+    <t>이호근</t>
+  </si>
+  <si>
+    <t>목4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>EGC7015-01</t>
+  </si>
+  <si>
+    <t>호신술</t>
+  </si>
+  <si>
+    <t>서종석</t>
+  </si>
+  <si>
+    <t>EGC7015-02</t>
+  </si>
+  <si>
+    <t>목2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>EGC7017-01</t>
+  </si>
+  <si>
+    <t>태권도</t>
+  </si>
+  <si>
+    <t>이상현</t>
+  </si>
+  <si>
+    <t>EGC7067-01</t>
+  </si>
+  <si>
+    <t>음악즐기기</t>
+  </si>
+  <si>
+    <t>이정화</t>
+  </si>
+  <si>
+    <t>목8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>EGC7071-01</t>
+  </si>
+  <si>
+    <t>부조리문학</t>
+  </si>
+  <si>
+    <t>EGC7072-01</t>
+  </si>
+  <si>
+    <t>영화로만나는패션</t>
+  </si>
+  <si>
+    <t>김희라</t>
+  </si>
+  <si>
+    <t>EGC7078-01</t>
+  </si>
+  <si>
+    <t>서양현대미술의이해</t>
+  </si>
+  <si>
+    <t>정윤영</t>
+  </si>
+  <si>
+    <t>EGC7082-01</t>
+  </si>
+  <si>
+    <t>사진이미지와표현</t>
+  </si>
+  <si>
+    <t>최수정</t>
+  </si>
+  <si>
+    <t>EGC7086-01</t>
+  </si>
+  <si>
+    <t>연기와창의적사고</t>
+  </si>
+  <si>
+    <t>김영윤</t>
+  </si>
+  <si>
+    <t>화5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
+  </si>
+  <si>
+    <t>EGC7088-01</t>
+  </si>
+  <si>
+    <t>작곡실습,소리를통한가능성</t>
+  </si>
+  <si>
+    <t>김정민</t>
+  </si>
+  <si>
+    <t>수4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>EGC7092-01</t>
+  </si>
+  <si>
+    <t>불교음악과합창</t>
+  </si>
+  <si>
+    <t>금4.0-6.5/12:00-15:00</t>
+  </si>
+  <si>
+    <t>EGC7098-01</t>
+  </si>
+  <si>
+    <t>실전축구초급</t>
+  </si>
+  <si>
+    <t>안효연</t>
+  </si>
+  <si>
+    <t>월2.0-3.5/10:00-12:00</t>
+  </si>
+  <si>
+    <t>EGC7099-01</t>
+  </si>
+  <si>
+    <t>실전농구초급</t>
+  </si>
+  <si>
+    <t>월4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>EGC7100-01</t>
+  </si>
+  <si>
+    <t>실전야구초급</t>
+  </si>
+  <si>
+    <t>김희상</t>
+  </si>
+  <si>
+    <t>월5.0-6.5/13:00-15:00</t>
+  </si>
+  <si>
+    <t>EGC7101-01</t>
+  </si>
+  <si>
+    <t>요가&amp;필라테스</t>
+  </si>
+  <si>
+    <t>EGC7101-02</t>
+  </si>
+  <si>
+    <t>EGC7102-01</t>
+  </si>
+  <si>
+    <t>스포츠산업의 변화와 이노베이션</t>
+  </si>
+  <si>
+    <t>이제승</t>
+  </si>
+  <si>
+    <t>EGC7105-01</t>
+  </si>
+  <si>
+    <t>패션그리고미술관</t>
+  </si>
+  <si>
+    <t>EGC7106-01</t>
+  </si>
+  <si>
+    <t>방송댄스</t>
+  </si>
+  <si>
+    <t>화4.0-5.5/12:00-14:00</t>
+  </si>
+  <si>
+    <t>EGC7107-01</t>
+  </si>
+  <si>
+    <t>스포츠메타버스콘텐츠개발</t>
+  </si>
+  <si>
+    <t>목5.0-7.5/13:00-16:00</t>
+  </si>
+  <si>
+    <t>EGC7108-01</t>
+  </si>
+  <si>
+    <t>치유로서의미술</t>
+  </si>
+  <si>
+    <t>EGC7109-01</t>
+  </si>
+  <si>
+    <t>영화속클래식음악</t>
+  </si>
+  <si>
+    <t>EGC9003-01</t>
+  </si>
+  <si>
+    <t>예술과경영의만남</t>
+  </si>
+  <si>
+    <t>정달영</t>
+  </si>
+  <si>
+    <t>GCR7001-01</t>
+  </si>
+  <si>
+    <t>세계음식의문화적이해</t>
+  </si>
+  <si>
+    <t>김진아</t>
+  </si>
+  <si>
+    <t>GCR7002-01</t>
+  </si>
+  <si>
+    <t>EnglishThroughDrama</t>
+  </si>
+  <si>
+    <t>스티븐쿤스</t>
+  </si>
+  <si>
+    <t>GCR7003-01</t>
+  </si>
+  <si>
+    <t>일본,문학,그리고불교</t>
+  </si>
+  <si>
+    <t>김호성(法雨)</t>
+  </si>
+  <si>
+    <t>DEC1077-01</t>
+  </si>
+  <si>
+    <t>직무이해와기업분석</t>
+  </si>
+  <si>
+    <t>오준일</t>
+  </si>
+  <si>
+    <t>월8.5-10.0/16:30-18:25</t>
+  </si>
+  <si>
+    <t>DEV0006-01</t>
+  </si>
+  <si>
+    <t>21세기Leadership(경제사회)</t>
+  </si>
+  <si>
+    <t>유창조</t>
+  </si>
+  <si>
+    <t>DEV1003-01</t>
+  </si>
+  <si>
+    <t>취업실전전략</t>
+  </si>
+  <si>
+    <t>이소은</t>
+  </si>
+  <si>
+    <t>DEV1003-02</t>
+  </si>
+  <si>
+    <t>수8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>DEV1003-03</t>
+  </si>
+  <si>
+    <t>심태은</t>
+  </si>
+  <si>
+    <t>DEV1003-04</t>
+  </si>
+  <si>
+    <t>김수현</t>
+  </si>
+  <si>
+    <t>DEV1003-05</t>
+  </si>
+  <si>
+    <t>강창호</t>
+  </si>
+  <si>
+    <t>DEV1032-01</t>
+  </si>
+  <si>
+    <t>대학생의 자기주도적 학습전략</t>
+  </si>
+  <si>
+    <t>하오선</t>
+  </si>
+  <si>
+    <t>화7.5-9.0/15:30-17:30</t>
+  </si>
+  <si>
+    <t>DEV1055-01</t>
+  </si>
+  <si>
+    <t>소셜벤처</t>
+  </si>
+  <si>
+    <t>이창영</t>
+  </si>
+  <si>
+    <t>화10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>DEV1055-02</t>
+  </si>
+  <si>
+    <t>조한준</t>
+  </si>
+  <si>
+    <t>수10.0-12.5/18:00-20:30</t>
+  </si>
+  <si>
+    <t>DEV1063-01</t>
+  </si>
+  <si>
+    <t>비즈니스실무론</t>
+  </si>
+  <si>
+    <t>김유천</t>
+  </si>
+  <si>
+    <t>DEV1065-01</t>
+  </si>
+  <si>
+    <t>창의적기획과문제해결</t>
+  </si>
+  <si>
+    <t>임윤서</t>
+  </si>
+  <si>
+    <t>DEV1065-02</t>
+  </si>
+  <si>
+    <t>DEV1066-01</t>
+  </si>
+  <si>
+    <t>코칭리더십</t>
+  </si>
+  <si>
+    <t>이송이</t>
+  </si>
+  <si>
+    <t>DEV1066-02</t>
+  </si>
+  <si>
+    <t>목3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>DEV1067-01</t>
+  </si>
+  <si>
+    <t>자기주도학습으로가는유학생학습전략</t>
+  </si>
+  <si>
+    <t>이선영</t>
+  </si>
+  <si>
+    <t>DEV1067-02</t>
+  </si>
+  <si>
+    <t>월8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>DEV1067-03</t>
+  </si>
+  <si>
+    <t>나윤주</t>
+  </si>
+  <si>
+    <t>DEV1072-01</t>
+  </si>
+  <si>
+    <t>도석완씨와함께하는도서관지식여행</t>
+  </si>
+  <si>
+    <t>수6.0-6.5/14:00-15:00</t>
+  </si>
+  <si>
+    <t>DEV1073-01</t>
+  </si>
+  <si>
+    <t>기업실무기초(인사)</t>
+  </si>
+  <si>
+    <t>허훈</t>
+  </si>
+  <si>
+    <t>DEV1074-01</t>
+  </si>
+  <si>
+    <t>공감의리더십</t>
+  </si>
+  <si>
+    <t>DEV1075-01</t>
+  </si>
+  <si>
+    <t>글로벌리더십</t>
+  </si>
+  <si>
+    <t>DEV1076-01</t>
+  </si>
+  <si>
+    <t>비전설정과커리어플래닝</t>
+  </si>
+  <si>
+    <t>문재영</t>
+  </si>
+  <si>
+    <t>DEV1078-01</t>
+  </si>
+  <si>
+    <t>스타트업과진로탐색</t>
+  </si>
+  <si>
+    <t>김기홍</t>
+  </si>
+  <si>
+    <t>DEV1078-02</t>
+  </si>
+  <si>
+    <t>성창수</t>
+  </si>
+  <si>
+    <t>DEV1078-03</t>
+  </si>
+  <si>
+    <t>이종범</t>
+  </si>
+  <si>
+    <t>DEV1080-01</t>
+  </si>
+  <si>
+    <t>스타트업과크라우드펀딩</t>
+  </si>
+  <si>
+    <t>수6.0-8.5/14:00-17:00</t>
+  </si>
+  <si>
+    <t>DEV1082-01</t>
+  </si>
+  <si>
+    <t>스타트업시뮬레이션</t>
+  </si>
+  <si>
+    <t>한규동</t>
+  </si>
+  <si>
+    <t>DEV1083-01</t>
+  </si>
+  <si>
+    <t>평범함을위대함으로바꾸는홍보의기술</t>
+  </si>
+  <si>
+    <t>DEV1084-01</t>
+  </si>
+  <si>
+    <t>더행복해지기-행복심리학</t>
+  </si>
+  <si>
+    <t>DEV1084-02</t>
+  </si>
+  <si>
+    <t>DEV1085-01</t>
+  </si>
+  <si>
+    <t>PresentationSkillsandPublicSpeaking</t>
   </si>
   <si>
     <t>캐서린무어</t>
   </si>
   <si>
-    <t>EGC2106-01</t>
-  </si>
-  <si>
-    <t>심리학개론</t>
-  </si>
-  <si>
-    <t>이나경</t>
-  </si>
-  <si>
-    <t>월7.0-8.5/15:00-17:00</t>
-  </si>
-  <si>
-    <t>EGC2106-02</t>
-  </si>
-  <si>
-    <t>금2.0-3.5/10:00-12:00</t>
-  </si>
-  <si>
-    <t>EGC2108-01</t>
-  </si>
-  <si>
-    <t>일본한자음쉽게이해하기</t>
-  </si>
-  <si>
-    <t>이경철</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>EGC2110-01</t>
-  </si>
-  <si>
-    <t>동아시아의역사와문화</t>
-  </si>
-  <si>
-    <t>조재우</t>
-  </si>
-  <si>
-    <t>수4.5-5.5/12:30-14:00,금4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>EGC2111-01</t>
-  </si>
-  <si>
-    <t>인간과로봇의공존시대</t>
-  </si>
-  <si>
-    <t>허남결(월인(月印))</t>
-  </si>
-  <si>
-    <t>EGC2112-01</t>
-  </si>
-  <si>
-    <t>한국문화낯설게보기</t>
-  </si>
-  <si>
-    <t>김문정</t>
-  </si>
-  <si>
-    <t>EGC2113-01</t>
-  </si>
-  <si>
-    <t>현대페미니즘의이해</t>
-  </si>
-  <si>
-    <t>이은정</t>
-  </si>
-  <si>
-    <t>화2.5-5.0/10:30-13:30</t>
-  </si>
-  <si>
-    <t>EGC2116-01</t>
-  </si>
-  <si>
-    <t>불교와스토리텔링</t>
-  </si>
-  <si>
-    <t>우제선</t>
-  </si>
-  <si>
-    <t>화1.0-2.0/09:00-10:30,목2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>EGC2117-01</t>
-  </si>
-  <si>
-    <t>동유라시아 세계 물품의 문명·문화사</t>
-  </si>
-  <si>
-    <t>김택경</t>
-  </si>
-  <si>
-    <t>화6.0-7.0/14:00-15:30,금6.0-7.0/14:00-15:30</t>
-  </si>
-  <si>
-    <t>EGC2118-01</t>
-  </si>
-  <si>
-    <t>이야기와 노래</t>
-  </si>
-  <si>
-    <t>김일환</t>
-  </si>
-  <si>
-    <t>EGC2119-01</t>
-  </si>
-  <si>
-    <t>지도 위의 문학</t>
-  </si>
-  <si>
-    <t>양승목</t>
-  </si>
-  <si>
-    <t>EGC2120-01</t>
-  </si>
-  <si>
-    <t>바다로 읽는 동아시아 문명문화사</t>
-  </si>
-  <si>
-    <t>홍성민</t>
-  </si>
-  <si>
-    <t>화8.0-9.0/16:00-17:30,목8.0-9.0/16:00-17:30</t>
-  </si>
-  <si>
-    <t>EGC2121-01</t>
-  </si>
-  <si>
-    <t>시와예술적상상력</t>
-  </si>
-  <si>
-    <t>박옥순</t>
-  </si>
-  <si>
-    <t>EGC2123-01</t>
-  </si>
-  <si>
-    <t>인간에 관하여</t>
-  </si>
-  <si>
-    <t>EGC2123-02</t>
-  </si>
-  <si>
-    <t>EGC2124-01</t>
-  </si>
-  <si>
-    <t>동아시아의예술과인문</t>
-  </si>
-  <si>
-    <t>김병모</t>
-  </si>
-  <si>
-    <t>EGC2125-01</t>
-  </si>
-  <si>
-    <t>교유와 치유의 한시감상</t>
-  </si>
-  <si>
-    <t>김상일</t>
-  </si>
-  <si>
-    <t>EGC2126-01</t>
-  </si>
-  <si>
-    <t>문자로읽는아시아의문화와사상</t>
-  </si>
-  <si>
-    <t>김천학</t>
-  </si>
-  <si>
-    <t>토2.0-4.5/10:00-13:00</t>
-  </si>
-  <si>
-    <t>EGC2127-01</t>
-  </si>
-  <si>
-    <t>영어권문화상품탐방</t>
-  </si>
-  <si>
-    <t>노헌균</t>
-  </si>
-  <si>
-    <t>수1.0-3.5/09:00-12:00</t>
-  </si>
-  <si>
-    <t>EGC8013-01</t>
-  </si>
-  <si>
-    <t>시사한국어1</t>
-  </si>
-  <si>
-    <t>홍진선</t>
-  </si>
-  <si>
-    <t>화8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>EGC8013-02</t>
-  </si>
-  <si>
-    <t>백수혜</t>
-  </si>
-  <si>
-    <t>EGC8014-01</t>
-  </si>
-  <si>
-    <t>시사한국어2</t>
-  </si>
-  <si>
-    <t>목8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>EGC8014-02</t>
-  </si>
-  <si>
-    <t>권미경</t>
-  </si>
-  <si>
-    <t>금6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>EGC9006-01</t>
-  </si>
-  <si>
-    <t>인도불교이야기</t>
-  </si>
-  <si>
-    <t>황순일(보성)</t>
-  </si>
-  <si>
-    <t>EGC9008-01</t>
-  </si>
-  <si>
-    <t>중국문자의이해</t>
-  </si>
-  <si>
-    <t>박석홍</t>
-  </si>
-  <si>
-    <t>EGC9012-01</t>
-  </si>
-  <si>
-    <t>그리스문학과신화이야기</t>
-  </si>
-  <si>
-    <t>손윤락</t>
-  </si>
-  <si>
-    <t>EGC9013-01</t>
-  </si>
-  <si>
-    <t>서구문학에나타난문제적인간읽기</t>
-  </si>
-  <si>
-    <t>EGC9017-01</t>
-  </si>
-  <si>
-    <t>메타버스시대와한반도평화</t>
+    <t>DEV11079-01</t>
+  </si>
+  <si>
+    <t>실전창업과상권분석</t>
+  </si>
+  <si>
+    <t>이지연</t>
+  </si>
+  <si>
+    <t>DEV11079-02</t>
+  </si>
+  <si>
+    <t>목7.0-8.5/15:00-17:00</t>
+  </si>
+  <si>
+    <t>EGC5003-01</t>
+  </si>
+  <si>
+    <t>4차 산업혁명과 드론 디자인</t>
+  </si>
+  <si>
+    <t>이석주</t>
+  </si>
+  <si>
+    <t>EGC5011-01</t>
+  </si>
+  <si>
+    <t>로봇의 행복, 인간의 행복</t>
+  </si>
+  <si>
+    <t>EGC5013-01</t>
+  </si>
+  <si>
+    <t>마케팅 에스노그라피와 빅데이터 기반 디자인씽킹</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>EGC5015-01</t>
+  </si>
+  <si>
+    <t>인문사회계열를 위한 Python과 AI 기초</t>
+  </si>
+  <si>
+    <t>월8.5-10.0/16:30-18:25,수6.0-7.5/14:00-16:00</t>
+  </si>
+  <si>
+    <t>EGC5016-01</t>
+  </si>
+  <si>
+    <t>융합의 이해와 화쟁형 인재</t>
+  </si>
+  <si>
+    <t>EGC5018-01</t>
+  </si>
+  <si>
+    <t>색채와 과학</t>
+  </si>
+  <si>
+    <t>홍성규</t>
+  </si>
+  <si>
+    <t>EGC5021-01</t>
+  </si>
+  <si>
+    <t>레트로 동아시아의 건축공간과 신화</t>
+  </si>
+  <si>
+    <t>EGC5023-01</t>
+  </si>
+  <si>
+    <t>언택트(Untact) 사회와 문화다양성</t>
   </si>
   <si>
     <t>서은숙</t>
   </si>
   <si>
-    <t>화2.5-3.5/10:30-12:00,목2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>GCR2002-01</t>
-  </si>
-  <si>
-    <t>행복학의인문학적문제들</t>
-  </si>
-  <si>
-    <t>김진선</t>
-  </si>
-  <si>
-    <t>GCR2004-01</t>
-  </si>
-  <si>
-    <t>현대요가와자기이해</t>
-  </si>
-  <si>
-    <t>최지연</t>
-  </si>
-  <si>
-    <t>EGC3028-01</t>
-  </si>
-  <si>
-    <t>인터넷정책과법</t>
-  </si>
-  <si>
-    <t>임규철</t>
-  </si>
-  <si>
-    <t>화7.0-8.0/15:00-16:30,목7.0-8.0/15:00-16:30</t>
-  </si>
-  <si>
-    <t>EGC3037-01</t>
-  </si>
-  <si>
-    <t>정보기술의이해</t>
-  </si>
-  <si>
-    <t>김인재</t>
-  </si>
-  <si>
-    <t>EGC3038-01</t>
-  </si>
-  <si>
-    <t>종교와법</t>
-  </si>
-  <si>
-    <t>고기복</t>
-  </si>
-  <si>
-    <t>EGC3038-02</t>
-  </si>
-  <si>
-    <t>EGC3039-01</t>
-  </si>
-  <si>
-    <t>인권의이해</t>
-  </si>
-  <si>
-    <t>EGC3039-02</t>
-  </si>
-  <si>
-    <t>EGC3041-01</t>
-  </si>
-  <si>
-    <t>영문학속의AI</t>
-  </si>
-  <si>
-    <t>EGC3044-01</t>
-  </si>
-  <si>
-    <t>북한의이해</t>
-  </si>
-  <si>
-    <t>박희진</t>
-  </si>
-  <si>
-    <t>EGC3045-01</t>
-  </si>
-  <si>
-    <t>광고홍보의이해</t>
-  </si>
-  <si>
-    <t>안홍민</t>
-  </si>
-  <si>
-    <t>월2.5-3.5/10:30-12:00,수2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>EGC3046-01</t>
-  </si>
-  <si>
-    <t>오페라속범죄학</t>
-  </si>
-  <si>
-    <t>조윤오</t>
-  </si>
-  <si>
-    <t>EGC3046-02</t>
-  </si>
-  <si>
-    <t>부민서</t>
-  </si>
-  <si>
-    <t>수4.0-6.5/12:00-15:00</t>
-  </si>
-  <si>
-    <t>EGC3050-01</t>
-  </si>
-  <si>
-    <t>글로벌시대의대중문화론</t>
-  </si>
-  <si>
-    <t>남근우</t>
-  </si>
-  <si>
-    <t>수4.5-5.5/12:30-14:00,목4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>EGC3051-01</t>
-  </si>
-  <si>
-    <t>대학생을위한실용금융</t>
-  </si>
-  <si>
-    <t>박한구</t>
-  </si>
-  <si>
-    <t>화2.0-3.5/10:00-12:00</t>
-  </si>
-  <si>
-    <t>EGC3054-01</t>
-  </si>
-  <si>
-    <t>자본주의의역사와전망</t>
-  </si>
-  <si>
-    <t>이상호</t>
-  </si>
-  <si>
-    <t>EGC3057-01</t>
-  </si>
-  <si>
-    <t>연애학개론</t>
-  </si>
-  <si>
-    <t>장재숙</t>
-  </si>
-  <si>
-    <t>EGC3057-02</t>
-  </si>
-  <si>
-    <t>EGC3059-01</t>
-  </si>
-  <si>
-    <t>기업운영의기초:수요와공급의균형</t>
-  </si>
-  <si>
-    <t>정욱</t>
-  </si>
-  <si>
-    <t>EGC3061-01</t>
-  </si>
-  <si>
-    <t>소비인사이트</t>
-  </si>
-  <si>
-    <t>정주원</t>
-  </si>
-  <si>
-    <t>EGC3062-01</t>
-  </si>
-  <si>
-    <t>토론을통한한국사회의이해</t>
-  </si>
-  <si>
-    <t>이종국</t>
-  </si>
-  <si>
-    <t>EGC3063-01</t>
-  </si>
-  <si>
-    <t>나의 생각 : 나와 타인, 사회에 대한 인지</t>
-  </si>
-  <si>
-    <t>정지아</t>
-  </si>
-  <si>
-    <t>EGC3064-01</t>
-  </si>
-  <si>
-    <t>자녀와 소통하는 훈련중심 예비부모교육</t>
-  </si>
-  <si>
-    <t>전미경</t>
-  </si>
-  <si>
-    <t>EGC3065-01</t>
-  </si>
-  <si>
-    <t>포스트 코로나 시대와 일본의 서브컬처</t>
-  </si>
-  <si>
-    <t>신우진</t>
-  </si>
-  <si>
-    <t>월4.0-5.0/12:00-13:30,수4.0-5.0/12:00-13:30</t>
-  </si>
-  <si>
-    <t>EGC7026-01</t>
-  </si>
-  <si>
-    <t>기술창조와특허</t>
-  </si>
-  <si>
-    <t>오승택</t>
-  </si>
-  <si>
-    <t>화1.0-3.5/09:00-12:00</t>
-  </si>
-  <si>
-    <t>EGC7026-02</t>
-  </si>
-  <si>
-    <t>화8.0-10.5/16:00-18:50</t>
-  </si>
-  <si>
-    <t>EGC7026-03</t>
-  </si>
-  <si>
-    <t>이용태</t>
-  </si>
-  <si>
-    <t>수6.5-9.0/14:30-17:30</t>
-  </si>
-  <si>
-    <t>EGC7026-04</t>
-  </si>
-  <si>
-    <t>목6.5-9.0/14:30-17:30</t>
-  </si>
-  <si>
-    <t>EGC7026-05</t>
-  </si>
-  <si>
-    <t>김효성</t>
-  </si>
-  <si>
-    <t>월10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>EGC7026-06</t>
-  </si>
-  <si>
-    <t>금10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>EGC9020-01</t>
-  </si>
-  <si>
-    <t>대중음악속의경제학개론</t>
-  </si>
-  <si>
-    <t>지인엽</t>
-  </si>
-  <si>
-    <t>화10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>EGC9021-01</t>
-  </si>
-  <si>
-    <t>비즈니스인텔리전스</t>
-  </si>
-  <si>
-    <t>김경재</t>
-  </si>
-  <si>
-    <t>GCR3001-01</t>
-  </si>
-  <si>
-    <t>관광과 문화</t>
-  </si>
-  <si>
-    <t>GCR3002-01</t>
-  </si>
-  <si>
-    <t>동남아시아와불교문화</t>
-  </si>
-  <si>
-    <t>EGC4010-01</t>
-  </si>
-  <si>
-    <t>생명가치와바이오산업</t>
-  </si>
-  <si>
-    <t>성정석</t>
-  </si>
-  <si>
-    <t>EGC4018-01</t>
-  </si>
-  <si>
-    <t>환경과탄소</t>
-  </si>
-  <si>
-    <t>강규영</t>
-  </si>
-  <si>
-    <t>EGC4022-01</t>
-  </si>
-  <si>
-    <t>과학기술과미래산업사회의변화</t>
-  </si>
-  <si>
-    <t>강윤재</t>
-  </si>
-  <si>
-    <t>화6.0-7.0/14:00-15:30,금2.0-3.0/10:00-11:30</t>
-  </si>
-  <si>
-    <t>EGC4023-01</t>
-  </si>
-  <si>
-    <t>인간과우주</t>
-  </si>
-  <si>
-    <t>이관수</t>
-  </si>
-  <si>
-    <t>화2.5-3.5/10:30-12:00,금1.0-2.0/09:00-10:30</t>
-  </si>
-  <si>
-    <t>EGC4024-01</t>
-  </si>
-  <si>
-    <t>건강한삶을위한식생활</t>
-  </si>
-  <si>
-    <t>금나나</t>
-  </si>
-  <si>
-    <t>화8.5-9.5/16:30-18:00,수8.5-9.5/16:30-18:00</t>
-  </si>
-  <si>
-    <t>EGC4027-01</t>
-  </si>
-  <si>
-    <t>숲에서찾는바이오나노재료의이해</t>
-  </si>
-  <si>
-    <t>김대영</t>
-  </si>
-  <si>
-    <t>EGC4028-01</t>
-  </si>
-  <si>
-    <t>노벨상으로보는생명이야기</t>
-  </si>
-  <si>
-    <t>EGC4029-01</t>
-  </si>
-  <si>
-    <t>알기쉬운반도체</t>
-  </si>
-  <si>
-    <t>김현석</t>
-  </si>
-  <si>
-    <t>EGC4030-01</t>
-  </si>
-  <si>
-    <t>성의과학</t>
-  </si>
-  <si>
-    <t>이태희</t>
-  </si>
-  <si>
-    <t>화4.0-6.5/12:00-15:00</t>
-  </si>
-  <si>
-    <t>EGC4031-01</t>
-  </si>
-  <si>
-    <t>미래사회와 식물</t>
-  </si>
-  <si>
-    <t>김경희</t>
-  </si>
-  <si>
-    <t>EGC4034-01</t>
-  </si>
-  <si>
-    <t>4차 산업혁명과 5G 무선통신</t>
-  </si>
-  <si>
-    <t>황승훈</t>
-  </si>
-  <si>
-    <t>EGC4035-01</t>
-  </si>
-  <si>
-    <t>사람을 위한 미생물에 의한 미생물의 환경공정</t>
-  </si>
-  <si>
-    <t>조시경</t>
-  </si>
-  <si>
-    <t>EGC4039-01</t>
-  </si>
-  <si>
-    <t>공학윤리</t>
-  </si>
-  <si>
-    <t>문재태</t>
-  </si>
-  <si>
-    <t>EGC4039-02</t>
-  </si>
-  <si>
-    <t>목10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>EGC4039-03</t>
-  </si>
-  <si>
-    <t>박진희</t>
-  </si>
-  <si>
-    <t>EGC4040-01</t>
-  </si>
-  <si>
-    <t>인공지능프로그래밍기초와실습</t>
-  </si>
-  <si>
-    <t>손윤식</t>
-  </si>
-  <si>
-    <t>월5.5-7.0/13:30-15:30,목5.5-7.0/13:30-15:30</t>
-  </si>
-  <si>
-    <t>EGC4040-02</t>
-  </si>
-  <si>
-    <t>윤성림</t>
-  </si>
-  <si>
-    <t>화8.0-9.5/16:00-18:00,목8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>EGC4040-03</t>
-  </si>
-  <si>
-    <t>김윤선</t>
-  </si>
-  <si>
-    <t>금1.0-4.5/09:00-13:00</t>
-  </si>
-  <si>
-    <t>EGC7096-01</t>
-  </si>
-  <si>
-    <t>파이썬프로그래밍기초</t>
-  </si>
-  <si>
-    <t>강호석</t>
-  </si>
-  <si>
-    <t>월8.5-11.0/16:30-19:15</t>
-  </si>
-  <si>
-    <t>EGC7096-02</t>
-  </si>
-  <si>
-    <t>금8.5-11.0/16:30-19:15</t>
-  </si>
-  <si>
-    <t>EGC9005-01</t>
-  </si>
-  <si>
-    <t>컴퓨터알고리즘의이해</t>
-  </si>
-  <si>
-    <t>정진우</t>
-  </si>
-  <si>
-    <t>EGC9007-01</t>
-  </si>
-  <si>
-    <t>로봇프로그래밍의세계</t>
-  </si>
-  <si>
-    <t>곽문규</t>
-  </si>
-  <si>
-    <t>EGC9009-01</t>
-  </si>
-  <si>
-    <t>집합과수의세계로의초대</t>
-  </si>
-  <si>
-    <t>이한주</t>
-  </si>
-  <si>
-    <t>EGC9011-01</t>
-  </si>
-  <si>
-    <t>과학기술과사회</t>
-  </si>
-  <si>
-    <t>GCR4001-01</t>
-  </si>
-  <si>
-    <t>우주와태양계</t>
-  </si>
-  <si>
-    <t>화1.0-2.0/09:00-10:30,금2.5-3.5/10:30-12:00</t>
-  </si>
-  <si>
-    <t>GCR4003-01</t>
-  </si>
-  <si>
-    <t>현대자연과학과미래사회</t>
-  </si>
-  <si>
-    <t>조훈영</t>
-  </si>
-  <si>
-    <t>EGC7006-01</t>
-  </si>
-  <si>
-    <t>골프</t>
-  </si>
-  <si>
-    <t>이연정</t>
-  </si>
-  <si>
-    <t>EGC7009-01</t>
-  </si>
-  <si>
-    <t>댄스스포츠</t>
-  </si>
-  <si>
-    <t>김혜련</t>
-  </si>
-  <si>
-    <t>월6.5-8.0/14:30-16:30</t>
-  </si>
-  <si>
-    <t>EGC7012-01</t>
-  </si>
-  <si>
-    <t>배드민턴</t>
-  </si>
-  <si>
-    <t>서정운</t>
-  </si>
-  <si>
-    <t>금3.0-4.5/11:00-13:00</t>
-  </si>
-  <si>
-    <t>EGC7014-01</t>
-  </si>
-  <si>
-    <t>농구</t>
-  </si>
-  <si>
-    <t>이호근</t>
-  </si>
-  <si>
-    <t>목4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>EGC7015-01</t>
-  </si>
-  <si>
-    <t>호신술</t>
-  </si>
-  <si>
-    <t>서종석</t>
-  </si>
-  <si>
-    <t>EGC7017-01</t>
-  </si>
-  <si>
-    <t>태권도</t>
-  </si>
-  <si>
-    <t>이상현</t>
-  </si>
-  <si>
-    <t>EGC7066-01</t>
-  </si>
-  <si>
-    <t>내인생의클래식</t>
-  </si>
-  <si>
-    <t>손순남</t>
-  </si>
-  <si>
-    <t>수8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>EGC7067-01</t>
-  </si>
-  <si>
-    <t>음악즐기기</t>
-  </si>
-  <si>
-    <t>이정화</t>
-  </si>
-  <si>
-    <t>목8.5-10.0/16:30-18:25</t>
-  </si>
-  <si>
-    <t>EGC7071-01</t>
-  </si>
-  <si>
-    <t>부조리문학</t>
-  </si>
-  <si>
-    <t>EGC7072-01</t>
-  </si>
-  <si>
-    <t>영화로만나는패션</t>
-  </si>
-  <si>
-    <t>김희라</t>
-  </si>
-  <si>
-    <t>EGC7078-01</t>
-  </si>
-  <si>
-    <t>서양현대미술의이해</t>
-  </si>
-  <si>
-    <t>이주희</t>
-  </si>
-  <si>
-    <t>EGC7082-01</t>
-  </si>
-  <si>
-    <t>사진이미지와표현</t>
-  </si>
-  <si>
-    <t>최수정</t>
-  </si>
-  <si>
-    <t>EGC7086-01</t>
-  </si>
-  <si>
-    <t>연기와창의적사고</t>
-  </si>
-  <si>
-    <t>김영윤</t>
-  </si>
-  <si>
-    <t>화5.5-6.5/13:30-15:00,목5.5-6.5/13:30-15:00</t>
-  </si>
-  <si>
-    <t>EGC7086-02</t>
-  </si>
-  <si>
-    <t>이종민</t>
-  </si>
-  <si>
-    <t>EGC7086-03</t>
-  </si>
-  <si>
-    <t>진창주</t>
-  </si>
-  <si>
-    <t>EGC7088-01</t>
-  </si>
-  <si>
-    <t>작곡실습,소리를통한가능성</t>
-  </si>
-  <si>
-    <t>김정민</t>
-  </si>
-  <si>
-    <t>수4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>EGC7098-01</t>
-  </si>
-  <si>
-    <t>실전축구초급</t>
-  </si>
-  <si>
-    <t>안효연</t>
-  </si>
-  <si>
-    <t>월2.0-3.5/10:00-12:00</t>
-  </si>
-  <si>
-    <t>EGC7099-01</t>
-  </si>
-  <si>
-    <t>실전농구초급</t>
-  </si>
-  <si>
-    <t>김수빈</t>
-  </si>
-  <si>
-    <t>월4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>EGC7100-01</t>
-  </si>
-  <si>
-    <t>실전야구초급</t>
-  </si>
-  <si>
-    <t>김희상</t>
-  </si>
-  <si>
-    <t>월5.0-6.5/13:00-15:00</t>
-  </si>
-  <si>
-    <t>EGC7101-01</t>
-  </si>
-  <si>
-    <t>요가&amp;필라테스</t>
-  </si>
-  <si>
-    <t>임주미</t>
-  </si>
-  <si>
-    <t>EGC7101-02</t>
-  </si>
-  <si>
-    <t>EGC7102-01</t>
-  </si>
-  <si>
-    <t>스포츠산업의 변화와 이노베이션</t>
-  </si>
-  <si>
-    <t>이제승</t>
-  </si>
-  <si>
-    <t>EGC7105-01</t>
-  </si>
-  <si>
-    <t>패션그리고미술관</t>
-  </si>
-  <si>
-    <t>EGC7106-01</t>
-  </si>
-  <si>
-    <t>방송댄스</t>
-  </si>
-  <si>
-    <t>문연주</t>
-  </si>
-  <si>
-    <t>화4.0-5.5/12:00-14:00</t>
-  </si>
-  <si>
-    <t>EGC9003-01</t>
-  </si>
-  <si>
-    <t>예술과경영의만남</t>
-  </si>
-  <si>
-    <t>정달영</t>
-  </si>
-  <si>
-    <t>GCR7001-01</t>
-  </si>
-  <si>
-    <t>세계음식의문화적이해</t>
-  </si>
-  <si>
-    <t>이심열</t>
-  </si>
-  <si>
-    <t>GCR7002-01</t>
-  </si>
-  <si>
-    <t>EnglishThroughDrama</t>
-  </si>
-  <si>
-    <t>스티븐쿤스</t>
-  </si>
-  <si>
-    <t>DEC1077-01</t>
-  </si>
-  <si>
-    <t>직무이해와기업분석</t>
-  </si>
-  <si>
-    <t>오준일</t>
-  </si>
-  <si>
-    <t>월8.5-10.0/16:30-18:25</t>
-  </si>
-  <si>
-    <t>DEC1077-02</t>
-  </si>
-  <si>
-    <t>이소은</t>
-  </si>
-  <si>
-    <t>DEV1003-01</t>
-  </si>
-  <si>
-    <t>취업실전전략</t>
-  </si>
-  <si>
-    <t>우혜인</t>
-  </si>
-  <si>
-    <t>DEV1003-02</t>
-  </si>
-  <si>
-    <t>DEV1003-03</t>
-  </si>
-  <si>
-    <t>심태은</t>
-  </si>
-  <si>
-    <t>DEV1003-04</t>
-  </si>
-  <si>
-    <t>김수현</t>
-  </si>
-  <si>
-    <t>DEV1003-05</t>
-  </si>
-  <si>
-    <t>강창호</t>
-  </si>
-  <si>
-    <t>DEV1032-01</t>
-  </si>
-  <si>
-    <t>대학생의 자기주도적 학습전략</t>
-  </si>
-  <si>
-    <t>하오선</t>
-  </si>
-  <si>
-    <t>화7.5-9.0/15:30-17:30</t>
-  </si>
-  <si>
-    <t>DEV1055-01</t>
-  </si>
-  <si>
-    <t>소셜벤처</t>
-  </si>
-  <si>
-    <t>이창영</t>
-  </si>
-  <si>
-    <t>DEV1055-02</t>
-  </si>
-  <si>
-    <t>수10.0-12.5/18:00-20:30</t>
-  </si>
-  <si>
-    <t>DEV1063-01</t>
-  </si>
-  <si>
-    <t>비즈니스실무론</t>
-  </si>
-  <si>
-    <t>김유천</t>
-  </si>
-  <si>
-    <t>DEV1065-01</t>
-  </si>
-  <si>
-    <t>창의적기획과문제해결</t>
-  </si>
-  <si>
-    <t>임윤서</t>
-  </si>
-  <si>
-    <t>DEV1065-02</t>
-  </si>
-  <si>
-    <t>DEV1066-02</t>
-  </si>
-  <si>
-    <t>코칭리더십</t>
-  </si>
-  <si>
-    <t>이송이</t>
-  </si>
-  <si>
-    <t>수3.0-4.5/11:00-13:00</t>
-  </si>
-  <si>
-    <t>DEV1067-01</t>
-  </si>
-  <si>
-    <t>자기주도학습으로가는유학생학습전략</t>
-  </si>
-  <si>
-    <t>이선영</t>
-  </si>
-  <si>
-    <t>DEV1067-02</t>
-  </si>
-  <si>
-    <t>월8.0-9.5/16:00-18:00</t>
-  </si>
-  <si>
-    <t>DEV1067-03</t>
-  </si>
-  <si>
-    <t>나윤주</t>
-  </si>
-  <si>
-    <t>DEV1072-01</t>
-  </si>
-  <si>
-    <t>도석완씨와함께하는도서관지식여행</t>
-  </si>
-  <si>
-    <t>오병욱</t>
-  </si>
-  <si>
-    <t>수6.0-6.5/14:00-15:00</t>
-  </si>
-  <si>
-    <t>DEV1073-01</t>
-  </si>
-  <si>
-    <t>기업실무기초(인사)</t>
-  </si>
-  <si>
-    <t>허훈</t>
-  </si>
-  <si>
-    <t>DEV1074-01</t>
-  </si>
-  <si>
-    <t>공감의리더십</t>
-  </si>
-  <si>
-    <t>DEV1075-01</t>
-  </si>
-  <si>
-    <t>글로벌리더십</t>
-  </si>
-  <si>
-    <t>DEV1076-01</t>
-  </si>
-  <si>
-    <t>비전설정과커리어플래닝</t>
-  </si>
-  <si>
-    <t>문재영</t>
-  </si>
-  <si>
-    <t>DEV1076-02</t>
-  </si>
-  <si>
-    <t>DEV1078-01</t>
-  </si>
-  <si>
-    <t>스타트업과진로탐색</t>
-  </si>
-  <si>
-    <t>김기홍</t>
-  </si>
-  <si>
-    <t>DEV1078-02</t>
-  </si>
-  <si>
-    <t>성창수</t>
-  </si>
-  <si>
-    <t>월6.0-7.5/14:00-16:00</t>
-  </si>
-  <si>
-    <t>DEV1078-03</t>
-  </si>
-  <si>
-    <t>이종범</t>
-  </si>
-  <si>
-    <t>DEV1080-01</t>
-  </si>
-  <si>
-    <t>스타트업과크라우드펀딩</t>
-  </si>
-  <si>
-    <t>조한준</t>
-  </si>
-  <si>
-    <t>수6.0-8.5/14:00-17:00</t>
-  </si>
-  <si>
-    <t>DEV1081-01</t>
-  </si>
-  <si>
-    <t>소셜벤처프로젝트</t>
-  </si>
-  <si>
-    <t>DEV1082-01</t>
-  </si>
-  <si>
-    <t>스타트업시뮬레이션</t>
-  </si>
-  <si>
-    <t>한규동</t>
-  </si>
-  <si>
-    <t>DEV11079-01</t>
-  </si>
-  <si>
-    <t>실전창업과상권분석</t>
-  </si>
-  <si>
-    <t>이지연</t>
-  </si>
-  <si>
-    <t>EGC5003-01</t>
-  </si>
-  <si>
-    <t>4차 산업혁명과 드론 디자인</t>
-  </si>
-  <si>
-    <t>이석주</t>
-  </si>
-  <si>
-    <t>EGC5005-01</t>
-  </si>
-  <si>
-    <t>4차산업혁명시대,삶의 변화와 불교휴머니티</t>
+    <t>EGC5024-01</t>
+  </si>
+  <si>
+    <t>미래기술문명사회에서 호모루덴스들의 놀이여행</t>
   </si>
   <si>
     <t>장미란</t>
   </si>
   <si>
-    <t>화7.0-9.5/15:00-18:00</t>
-  </si>
-  <si>
-    <t>EGC5007-01</t>
-  </si>
-  <si>
-    <t>4차 산업혁명 이해와 철학</t>
-  </si>
-  <si>
-    <t>김명식</t>
-  </si>
-  <si>
-    <t>EGC5011-01</t>
-  </si>
-  <si>
-    <t>로봇의 행복, 인간의 행복</t>
-  </si>
-  <si>
-    <t>EGC5013-01</t>
-  </si>
-  <si>
-    <t>마케팅 에스노그라피와 빅데이터 기반 디자인씽킹</t>
-  </si>
-  <si>
-    <t>이수현</t>
-  </si>
-  <si>
-    <t>EGC5016-01</t>
-  </si>
-  <si>
-    <t>융합의 이해와 화쟁형 인재</t>
-  </si>
-  <si>
-    <t>이강우</t>
-  </si>
-  <si>
-    <t>EGC5018-01</t>
-  </si>
-  <si>
-    <t>색채와 과학</t>
-  </si>
-  <si>
-    <t>홍성규</t>
-  </si>
-  <si>
-    <t>EGC5021-01</t>
-  </si>
-  <si>
-    <t>레트로 동아시아의 건축공간과 신화</t>
-  </si>
-  <si>
-    <t>EGC5023-01</t>
-  </si>
-  <si>
-    <t>언택트(Untact) 사회와 문화다양성</t>
-  </si>
-  <si>
-    <t>EGC5024-01</t>
-  </si>
-  <si>
-    <t>미래기술문명사회에서 호모루덴스들의 놀이여행</t>
-  </si>
-  <si>
     <t>EGC5025-01</t>
   </si>
   <si>
     <t>말은 마음이 지은 집</t>
   </si>
   <si>
-    <t>윤영도</t>
-  </si>
-  <si>
-    <t>EGC5026-01</t>
-  </si>
-  <si>
-    <t>빅데이터를 활용한 비언어적 의사소통 이해</t>
-  </si>
-  <si>
-    <t>정원일</t>
-  </si>
-  <si>
     <t>EGC5027-01</t>
   </si>
   <si>
@@ -1600,36 +1654,24 @@
     <t>융합콘텐츠산업과 캐릭터</t>
   </si>
   <si>
-    <t>이영숙</t>
-  </si>
-  <si>
-    <t>EGC5031-01</t>
-  </si>
-  <si>
-    <t>한류 문화콘텐츠 리터러쉬</t>
-  </si>
-  <si>
-    <t>김수경</t>
-  </si>
-  <si>
-    <t>월3.0-4.0/11:00-12:30,수3.0-4.0/11:00-12:30</t>
-  </si>
-  <si>
-    <t>EGC5032-01</t>
-  </si>
-  <si>
-    <t>융합적 화법과 토론기술</t>
-  </si>
-  <si>
-    <t>김미숙</t>
-  </si>
-  <si>
     <t>EGC5033-01</t>
   </si>
   <si>
     <t>데이터프로그래밍기초와실습</t>
   </si>
   <si>
+    <t>월4.0-5.5/12:00-14:00,수3.0-4.5/11:00-13:00</t>
+  </si>
+  <si>
+    <t>EGC5033-02</t>
+  </si>
+  <si>
+    <t>수8.0-9.5/16:00-18:00,금8.0-9.5/16:00-18:00</t>
+  </si>
+  <si>
+    <t>EGC5033-03</t>
+  </si>
+  <si>
     <t>백순욱</t>
   </si>
   <si>
@@ -1642,10 +1684,70 @@
     <t>테마로읽는몸과세계</t>
   </si>
   <si>
-    <t>김성규</t>
-  </si>
-  <si>
-    <t>화6.0-7.0/14:00-15:30,목6.0-7.0/14:00-15:30</t>
+    <t>EGC5037-01</t>
+  </si>
+  <si>
+    <t>AI시대의인간관계와감정탐구</t>
+  </si>
+  <si>
+    <t>수3.0-5.5/11:00-14:00</t>
+  </si>
+  <si>
+    <t>EGC5038-01</t>
+  </si>
+  <si>
+    <t>매체를통한소통,사고를디자인하다</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>EGC5039-01</t>
+  </si>
+  <si>
+    <t>행복인터뷰와자기서사의테크네</t>
+  </si>
+  <si>
+    <t>문경연</t>
+  </si>
+  <si>
+    <t>수4.5-7.0/12:30-15:30</t>
+  </si>
+  <si>
+    <t>EGC5040-01</t>
+  </si>
+  <si>
+    <t>삼국유사와문화콘텐츠</t>
+  </si>
+  <si>
+    <t>곽미라</t>
+  </si>
+  <si>
+    <t>EGC5041-01</t>
+  </si>
+  <si>
+    <t>AI·사랑·혐오</t>
+  </si>
+  <si>
+    <t>EGC5042-01</t>
+  </si>
+  <si>
+    <t>디지털붓다와의대화</t>
+  </si>
+  <si>
+    <t>EGC5044-01</t>
+  </si>
+  <si>
+    <t>메타버스와통일문화콘텐츠</t>
+  </si>
+  <si>
+    <t>EGC5045-01</t>
+  </si>
+  <si>
+    <t>소셜이노베이션을위한질적데이터분석실습(캡스톤디자인)</t>
+  </si>
+  <si>
+    <t>화2.5-5.0/10:30-13:30,목2.5-5.0/10:30-13:30</t>
   </si>
   <si>
     <t>EGC9018-01</t>
@@ -1654,9 +1756,6 @@
     <t>디지털기술과미래역량</t>
   </si>
   <si>
-    <t>한송이</t>
-  </si>
-  <si>
     <t>수5.5-8.0/13:30-16:30</t>
   </si>
   <si>
@@ -1667,6 +1766,9 @@
   </si>
   <si>
     <t>한수진</t>
+  </si>
+  <si>
+    <t>수2.5-3.5/10:30-12:00,금2.5-3.5/10:30-12:00</t>
   </si>
   <si>
     <t>*</t>
@@ -2068,7 +2170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2076,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2146,10 +2248,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,19 +2259,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2183,13 +2285,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,13 +2299,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
@@ -2217,19 +2319,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,19 +2339,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2257,19 +2359,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2277,19 +2379,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2297,19 +2399,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,19 +2419,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,19 +2439,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2357,19 +2459,19 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>29</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2377,19 +2479,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,19 +2499,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2417,19 +2519,19 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>549</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2437,19 +2539,19 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,19 +2559,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>69</v>
+        <v>583</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2477,19 +2579,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2500,16 +2602,16 @@
         <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,19 +2619,19 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,19 +2639,19 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,19 +2659,19 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,19 +2679,19 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,19 +2699,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,19 +2719,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2637,19 +2739,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2657,19 +2759,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2683,13 +2785,13 @@
         <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>26</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2703,13 +2805,13 @@
         <v>105</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>106</v>
+        <v>583</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2717,19 +2819,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,19 +2839,19 @@
         <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2757,19 +2859,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,19 +2879,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2797,19 +2899,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2817,19 +2919,19 @@
         <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2837,19 +2939,19 @@
         <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>549</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2857,19 +2959,19 @@
         <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>549</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,19 +2979,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,19 +2999,19 @@
         <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,19 +3019,19 @@
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,19 +3039,19 @@
         <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,19 +3059,19 @@
         <v>6</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2977,19 +3079,19 @@
         <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2997,19 +3099,19 @@
         <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3017,19 +3119,19 @@
         <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>42</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,19 +3139,19 @@
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>157</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>18</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3057,19 +3159,19 @@
         <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>26</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,16 +3182,16 @@
         <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,19 +3199,19 @@
         <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>549</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,19 +3219,19 @@
         <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3137,19 +3239,19 @@
         <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3157,19 +3259,19 @@
         <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3177,19 +3279,19 @@
         <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3197,19 +3299,19 @@
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="D56" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>180</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,19 +3319,19 @@
         <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="F57" s="3" t="s">
-        <v>184</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3237,19 +3339,19 @@
         <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3257,19 +3359,19 @@
         <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F59" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3277,19 +3379,19 @@
         <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="F60" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3303,13 +3405,13 @@
         <v>193</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>194</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>549</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,19 +3419,19 @@
         <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3337,19 +3439,19 @@
         <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3357,19 +3459,19 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="F64" s="3" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3377,19 +3479,19 @@
         <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="D65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>33</v>
+        <v>583</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3397,19 +3499,19 @@
         <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,19 +3519,19 @@
         <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>214</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3437,19 +3539,19 @@
         <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>212</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>213</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3457,19 +3559,19 @@
         <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3477,19 +3579,19 @@
         <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3497,19 +3599,19 @@
         <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" s="3" t="s">
+      <c r="F71" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3517,19 +3619,19 @@
         <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>226</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3543,13 +3645,13 @@
         <v>228</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>230</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3557,19 +3659,19 @@
         <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="F74" s="3" t="s">
-        <v>549</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3577,19 +3679,19 @@
         <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F75" s="3" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,13 +3705,13 @@
         <v>237</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>42</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3617,19 +3719,19 @@
         <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>240</v>
-      </c>
       <c r="F77" s="3" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3637,19 +3739,19 @@
         <v>6</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>243</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3657,19 +3759,19 @@
         <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E79" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3677,19 +3779,19 @@
         <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="F80" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3697,19 +3799,19 @@
         <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3717,19 +3819,19 @@
         <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>549</v>
+        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3737,19 +3839,19 @@
         <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>549</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3757,19 +3859,19 @@
         <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>549</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3777,19 +3879,19 @@
         <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>267</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3797,19 +3899,19 @@
         <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>26</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3817,19 +3919,19 @@
         <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3837,19 +3939,19 @@
         <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3857,19 +3959,19 @@
         <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>26</v>
+        <v>583</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3877,19 +3979,19 @@
         <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="3" t="s">
+      <c r="F90" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3897,19 +3999,19 @@
         <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3917,19 +4019,19 @@
         <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="F92" s="3" t="s">
-        <v>287</v>
+        <v>583</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3937,19 +4039,19 @@
         <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>290</v>
+        <v>583</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3957,19 +4059,19 @@
         <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="F94" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3977,19 +4079,19 @@
         <v>6</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3997,19 +4099,19 @@
         <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>296</v>
+        <v>38</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>299</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4017,19 +4119,19 @@
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>549</v>
+        <v>298</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4037,19 +4139,19 @@
         <v>6</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>549</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4057,19 +4159,19 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>549</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4077,19 +4179,19 @@
         <v>6</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>549</v>
+        <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4097,19 +4199,19 @@
         <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,19 +4219,19 @@
         <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4137,19 +4239,19 @@
         <v>6</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>184</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4157,19 +4259,19 @@
         <v>6</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>323</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4177,19 +4279,19 @@
         <v>6</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>327</v>
+        <v>583</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4197,19 +4299,19 @@
         <v>6</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>331</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4217,19 +4319,19 @@
         <v>6</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>123</v>
+        <v>583</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4237,19 +4339,19 @@
         <v>6</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>331</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4257,19 +4359,19 @@
         <v>6</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>340</v>
+        <v>583</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>341</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4277,19 +4379,19 @@
         <v>6</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>344</v>
+        <v>583</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4297,19 +4399,19 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>17</v>
+        <v>338</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>33</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4317,19 +4419,19 @@
         <v>6</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>18</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4337,19 +4439,19 @@
         <v>6</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4357,19 +4459,19 @@
         <v>6</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>42</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,19 +4479,19 @@
         <v>6</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4397,19 +4499,19 @@
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4417,19 +4519,19 @@
         <v>6</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>364</v>
+        <v>160</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>360</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4437,19 +4539,19 @@
         <v>6</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>368</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4457,19 +4559,19 @@
         <v>6</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4477,19 +4579,19 @@
         <v>6</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>376</v>
+        <v>19</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4497,19 +4599,19 @@
         <v>6</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4517,19 +4619,19 @@
         <v>6</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4537,19 +4639,19 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4557,19 +4659,19 @@
         <v>6</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>33</v>
+        <v>381</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,19 +4679,19 @@
         <v>6</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>350</v>
+        <v>583</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4597,19 +4699,19 @@
         <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4617,19 +4719,19 @@
         <v>6</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>396</v>
+        <v>583</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>549</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4637,19 +4739,19 @@
         <v>6</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>399</v>
+        <v>583</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>33</v>
+        <v>343</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4657,19 +4759,19 @@
         <v>6</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4677,19 +4779,19 @@
         <v>6</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>406</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,19 +4799,19 @@
         <v>6</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>408</v>
+        <v>583</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,19 +4819,19 @@
         <v>6</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>411</v>
+        <v>583</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>14</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4737,19 +4839,19 @@
         <v>6</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>405</v>
+        <v>583</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>341</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4757,19 +4859,19 @@
         <v>6</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>345</v>
+        <v>19</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,19 +4879,19 @@
         <v>6</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>126</v>
+        <v>583</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4797,19 +4899,19 @@
         <v>6</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4817,19 +4919,19 @@
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>422</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4837,19 +4939,19 @@
         <v>6</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>230</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4857,19 +4959,19 @@
         <v>6</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,19 +4979,19 @@
         <v>6</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>393</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4897,19 +4999,19 @@
         <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4917,19 +5019,19 @@
         <v>6</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>341</v>
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4937,19 +5039,19 @@
         <v>6</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4957,19 +5059,19 @@
         <v>6</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4977,19 +5079,19 @@
         <v>6</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>443</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4997,19 +5099,19 @@
         <v>6</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C146" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,19 +5119,19 @@
         <v>6</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5037,19 +5139,19 @@
         <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>10</v>
+        <v>447</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,19 +5159,19 @@
         <v>6</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>14</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5077,19 +5179,19 @@
         <v>6</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>376</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5097,19 +5199,19 @@
         <v>6</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>118</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5117,19 +5219,19 @@
         <v>6</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5137,19 +5239,19 @@
         <v>6</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>14</v>
+        <v>459</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5157,19 +5259,19 @@
         <v>6</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C154" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>465</v>
-      </c>
       <c r="F154" s="3" t="s">
-        <v>466</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5177,19 +5279,19 @@
         <v>6</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>468</v>
-      </c>
       <c r="F155" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5197,19 +5299,19 @@
         <v>6</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>472</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5217,19 +5319,19 @@
         <v>6</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>281</v>
+        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5237,19 +5339,19 @@
         <v>6</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5257,19 +5359,19 @@
         <v>6</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>331</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -5277,19 +5379,19 @@
         <v>6</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5297,19 +5399,19 @@
         <v>6</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>487</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5317,19 +5419,19 @@
         <v>6</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5337,19 +5439,19 @@
         <v>6</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>144</v>
+        <v>484</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5357,19 +5459,19 @@
         <v>6</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5377,19 +5479,19 @@
         <v>6</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>549</v>
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5397,19 +5499,19 @@
         <v>6</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>26</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5417,19 +5519,19 @@
         <v>6</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>483</v>
+        <v>60</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5437,19 +5539,19 @@
         <v>6</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>140</v>
+        <v>457</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>33</v>
+        <v>464</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5457,19 +5559,19 @@
         <v>6</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5477,19 +5579,19 @@
         <v>6</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5497,19 +5599,19 @@
         <v>6</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>42</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5517,19 +5619,19 @@
         <v>6</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>18</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5537,19 +5639,19 @@
         <v>6</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F173" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5557,19 +5659,19 @@
         <v>6</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>523</v>
+        <v>163</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5577,19 +5679,19 @@
         <v>6</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>26</v>
+        <v>583</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5597,19 +5699,19 @@
         <v>6</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>529</v>
+        <v>583</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5617,19 +5719,19 @@
         <v>6</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>533</v>
+        <v>583</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>472</v>
+        <v>583</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5637,19 +5739,19 @@
         <v>6</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F178" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5657,19 +5759,19 @@
         <v>6</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>541</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5677,19 +5779,19 @@
         <v>6</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>545</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5697,19 +5799,399 @@
         <v>6</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C181" s="3" t="s">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E181" s="3" t="s">
+      <c r="C188" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F188" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>66</v>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
